--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2158.702910715808</v>
+        <v>429581.8792324462</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2158.702910715808</v>
+        <v>429581.8792324462</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90600.17412677361</v>
+        <v>6341401.642268292</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90600.17412677361</v>
+        <v>6341401.642268292</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495362112.210199</v>
+        <v>54663257.09096055</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16047.03989200859</v>
+        <v>1331554.330849993</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30708.60194050204</v>
+        <v>2425479.974759319</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45386.41916054818</v>
+        <v>3519405.618668647</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>61019.77183084828</v>
+        <v>4545640.215053213</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75997.05793397408</v>
+        <v>5638403.3229159</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90974.34403709986</v>
+        <v>6731166.430778585</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105951.6301402256</v>
+        <v>7823929.538641267</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120928.9162433515</v>
+        <v>8916692.646503942</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136127.7054554445</v>
+        <v>9962619.13864284</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>151352.3578425885</v>
+        <v>11018161.53092869</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>166577.0102297324</v>
+        <v>12073703.92321454</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>181801.6626168764</v>
+        <v>13129246.31550039</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>197026.3150040203</v>
+        <v>14184788.70778625</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>212250.9673911643</v>
+        <v>15240331.10007211</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>228425.6763572496</v>
+        <v>16174707.99990607</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,13 +27052,13 @@
         <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>109</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1372</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
